--- a/parameters/pcode_table_FINAL_CODES_2020-08-28.xlsx
+++ b/parameters/pcode_table_FINAL_CODES_2020-08-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\its_data_modernization_local\chem_hist_cleaning\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE60ABCA-98CB-4F7D-AF6C-223DB5183504}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44BB2E-5A77-4F88-B2AF-053CBF694D97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED1AB139-CA79-4663-894E-917D94973C31}"/>
   </bookViews>
@@ -2297,8 +2297,8 @@
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/parameters/pcode_table_FINAL_CODES_2020-08-28.xlsx
+++ b/parameters/pcode_table_FINAL_CODES_2020-08-28.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\its_data_modernization_local\chem_hist_cleaning\parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmlemley\New York State Office of Information Technology Services\SMAS - Streams Data Modernization\to_be_cleaned\chem_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44BB2E-5A77-4F88-B2AF-053CBF694D97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{773006B8-256B-4F70-8341-F0A72B59C86B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{25331274-EF72-4F95-920E-4E0E5E47D0DA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED1AB139-CA79-4663-894E-917D94973C31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="598">
   <si>
     <t>7440-66-6</t>
   </si>
@@ -1409,6 +1409,9 @@
     <t>CARBON, TOTAL ORGANIC</t>
   </si>
   <si>
+    <t>Noted as TOTAL CARBON (D) in 2015 samples with both T and D components present.</t>
+  </si>
+  <si>
     <t>CARBON, TOTAL (DISSOLVED FRACTION)</t>
   </si>
   <si>
@@ -1757,10 +1760,16 @@
     <t>JF noted as unique.</t>
   </si>
   <si>
+    <t>Create unique param for unknown fraction.</t>
+  </si>
+  <si>
     <t>114, 115, and 116 (phosphate ion variations) were removed and condensed into 119.</t>
   </si>
   <si>
     <t>POLYCHLORINATED BIPHENYLS (PCBS), TOTAL</t>
+  </si>
+  <si>
+    <t>Added later. Add pcodes for all other PCB homologues?</t>
   </si>
   <si>
     <t>pg/L</t>
@@ -1817,6 +1826,12 @@
     <t>Cyanotoxins</t>
   </si>
   <si>
+    <t>Catch-all for all other PCBs (percent)</t>
+  </si>
+  <si>
+    <t>Catch-all for all other PCBs (concentration). Refer to chemical_name in results table for specific congener/arachlor.</t>
+  </si>
+  <si>
     <t>POLYCHLORINATED BIPHENYLS (PCBS), VARIOUS</t>
   </si>
   <si>
@@ -1832,43 +1847,7 @@
     <t>Alene noted as different from pH. Unique pcode assigned.</t>
   </si>
   <si>
-    <t>Measurements collected with YSI Total Algae sensor.</t>
-  </si>
-  <si>
-    <t>Measurements collected with Hydrolab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique from other phycocyanin. </t>
-  </si>
-  <si>
-    <t>Notes_final</t>
-  </si>
-  <si>
-    <t>DBP lab surrogate parameter (not flagged)</t>
-  </si>
-  <si>
-    <t>Created for unknown fractions in historic database.</t>
-  </si>
-  <si>
-    <t>Different from pH.</t>
-  </si>
-  <si>
-    <t>Created for TOTAL CARBON (DISSOLVED) in 2015 samples with both T and D components present.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results in DB have different analytical method from those of CARBON, DISSOLVED ORGANIC (DOC). </t>
-  </si>
-  <si>
-    <t>Confirm in DB if records are TOTAL or FECAL.</t>
-  </si>
-  <si>
-    <t>Records in DB with undetermined source.</t>
-  </si>
-  <si>
-    <t>Contains all non-total PCB results (concentration). Refer to CHR_CHEMICAL_NAME in CHEM_HISTORY_RESULT table for specific congener/arachlor.</t>
-  </si>
-  <si>
-    <t>Contains all non-total PCB results (percent).</t>
+    <t>Unique from other phycocyanin. Measurements collected with Hydrolab</t>
   </si>
 </sst>
 </file>
@@ -2297,8 +2276,8 @@
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2320,61 +2299,61 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -2382,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E2" t="s">
         <v>334</v>
@@ -2400,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N2" t="s">
         <v>434</v>
@@ -2412,10 +2391,10 @@
         <v>76</v>
       </c>
       <c r="R2" t="s">
+        <v>548</v>
+      </c>
+      <c r="S2" t="s">
         <v>547</v>
-      </c>
-      <c r="S2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -2423,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
@@ -2441,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N3" t="s">
         <v>434</v>
@@ -2453,10 +2432,10 @@
         <v>76</v>
       </c>
       <c r="R3" t="s">
+        <v>548</v>
+      </c>
+      <c r="S3" t="s">
         <v>547</v>
-      </c>
-      <c r="S3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -2464,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>334</v>
@@ -2482,22 +2461,22 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
+        <v>545</v>
+      </c>
+      <c r="N4" t="s">
         <v>544</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>543</v>
-      </c>
-      <c r="O4" t="s">
-        <v>542</v>
       </c>
       <c r="P4" t="s">
         <v>76</v>
       </c>
       <c r="R4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="S4" t="s">
         <v>190</v>
@@ -2508,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>334</v>
@@ -2526,22 +2505,22 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
+        <v>540</v>
+      </c>
+      <c r="N5" t="s">
         <v>539</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>538</v>
-      </c>
-      <c r="O5" t="s">
-        <v>537</v>
       </c>
       <c r="P5" t="s">
         <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -2549,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>33</v>
@@ -2570,16 +2549,13 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>598</v>
-      </c>
-      <c r="L6" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M6" t="s">
+        <v>534</v>
+      </c>
+      <c r="N6" t="s">
         <v>533</v>
-      </c>
-      <c r="N6" t="s">
-        <v>532</v>
       </c>
       <c r="O6" t="s">
         <v>189</v>
@@ -2588,10 +2564,10 @@
         <v>71</v>
       </c>
       <c r="Q6" t="s">
+        <v>532</v>
+      </c>
+      <c r="R6" t="s">
         <v>531</v>
-      </c>
-      <c r="R6" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -2599,13 +2575,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -2620,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N7" t="s">
         <v>434</v>
@@ -2632,10 +2608,10 @@
         <v>71</v>
       </c>
       <c r="Q7" t="s">
+        <v>528</v>
+      </c>
+      <c r="R7" t="s">
         <v>527</v>
-      </c>
-      <c r="R7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -2643,16 +2619,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E8" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F8" t="s">
         <v>115</v>
@@ -2664,7 +2640,7 @@
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N8" t="s">
         <v>434</v>
@@ -2676,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="R8" t="s">
+        <v>525</v>
+      </c>
+      <c r="S8" t="s">
         <v>524</v>
-      </c>
-      <c r="S8" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2690,16 +2666,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D9" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E9" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -2711,7 +2687,7 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N9" t="s">
         <v>434</v>
@@ -2723,10 +2699,10 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
+        <v>521</v>
+      </c>
+      <c r="R9" t="s">
         <v>520</v>
-      </c>
-      <c r="R9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2734,16 +2710,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -2755,19 +2731,19 @@
         <v>9</v>
       </c>
       <c r="M10" t="s">
+        <v>518</v>
+      </c>
+      <c r="N10" t="s">
         <v>517</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>516</v>
-      </c>
-      <c r="O10" t="s">
-        <v>515</v>
       </c>
       <c r="P10" t="s">
         <v>16</v>
       </c>
       <c r="R10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2775,13 +2751,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -2819,16 +2795,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E12" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
         <v>115</v>
@@ -2840,19 +2816,19 @@
         <v>11</v>
       </c>
       <c r="M12" t="s">
+        <v>513</v>
+      </c>
+      <c r="N12" t="s">
         <v>512</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>511</v>
-      </c>
-      <c r="O12" t="s">
-        <v>510</v>
       </c>
       <c r="P12" t="s">
         <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2860,16 +2836,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D13" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E13" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F13" t="s">
         <v>115</v>
@@ -2881,22 +2857,22 @@
         <v>12</v>
       </c>
       <c r="M13" t="s">
+        <v>508</v>
+      </c>
+      <c r="N13" t="s">
         <v>507</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>506</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q13" t="s">
         <v>505</v>
       </c>
-      <c r="P13" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>504</v>
-      </c>
-      <c r="R13" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2904,13 +2880,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -2925,7 +2901,7 @@
         <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N14" t="s">
         <v>434</v>
@@ -2937,10 +2913,10 @@
         <v>16</v>
       </c>
       <c r="Q14" t="s">
+        <v>501</v>
+      </c>
+      <c r="R14" t="s">
         <v>500</v>
-      </c>
-      <c r="R14" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2948,16 +2924,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F15" t="s">
         <v>115</v>
@@ -2969,7 +2945,7 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N15" t="s">
         <v>434</v>
@@ -2981,7 +2957,7 @@
         <v>16</v>
       </c>
       <c r="R15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2989,16 +2965,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D16" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3010,7 +2986,7 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N16" t="s">
         <v>434</v>
@@ -3019,10 +2995,10 @@
         <v>433</v>
       </c>
       <c r="P16" t="s">
+        <v>494</v>
+      </c>
+      <c r="R16" t="s">
         <v>493</v>
-      </c>
-      <c r="R16" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -3030,16 +3006,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D17" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E17" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F17" t="s">
         <v>115</v>
@@ -3051,25 +3027,25 @@
         <v>16</v>
       </c>
       <c r="M17" t="s">
+        <v>491</v>
+      </c>
+      <c r="N17" t="s">
         <v>490</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>489</v>
-      </c>
-      <c r="O17" t="s">
-        <v>488</v>
       </c>
       <c r="P17" t="s">
         <v>16</v>
       </c>
       <c r="Q17" t="s">
+        <v>488</v>
+      </c>
+      <c r="R17" t="s">
         <v>487</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>486</v>
-      </c>
-      <c r="S17" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -3077,13 +3053,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D18" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E18" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3095,7 +3071,7 @@
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N18" t="s">
         <v>434</v>
@@ -3107,7 +3083,7 @@
         <v>16</v>
       </c>
       <c r="S18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -3115,16 +3091,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D19" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E19" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3136,22 +3112,22 @@
         <v>18</v>
       </c>
       <c r="M19" t="s">
+        <v>482</v>
+      </c>
+      <c r="N19" t="s">
         <v>481</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>480</v>
-      </c>
-      <c r="O19" t="s">
-        <v>479</v>
       </c>
       <c r="P19" t="s">
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="S19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -3159,16 +3135,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D20" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E20" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F20" t="s">
         <v>115</v>
@@ -3180,7 +3156,7 @@
         <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N20" t="s">
         <v>434</v>
@@ -3192,13 +3168,13 @@
         <v>2</v>
       </c>
       <c r="Q20" t="s">
+        <v>476</v>
+      </c>
+      <c r="R20" t="s">
         <v>475</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>474</v>
-      </c>
-      <c r="S20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -3206,13 +3182,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D21" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
@@ -3227,7 +3203,7 @@
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N21" t="s">
         <v>434</v>
@@ -3239,7 +3215,7 @@
         <v>113</v>
       </c>
       <c r="R21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -3247,16 +3223,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D22" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E22" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>
@@ -3268,7 +3244,7 @@
         <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N22" t="s">
         <v>434</v>
@@ -3280,10 +3256,10 @@
         <v>113</v>
       </c>
       <c r="R22" t="s">
+        <v>469</v>
+      </c>
+      <c r="S22" t="s">
         <v>468</v>
-      </c>
-      <c r="S22" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -3291,10 +3267,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D23" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
@@ -3309,7 +3285,7 @@
         <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N23" t="s">
         <v>434</v>
@@ -3324,10 +3300,10 @@
         <v>452</v>
       </c>
       <c r="R23" t="s">
+        <v>465</v>
+      </c>
+      <c r="S23" t="s">
         <v>464</v>
-      </c>
-      <c r="S23" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -3335,10 +3311,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -3353,7 +3329,7 @@
         <v>134</v>
       </c>
       <c r="M24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N24" t="s">
         <v>3</v>
@@ -3362,13 +3338,13 @@
         <v>71</v>
       </c>
       <c r="Q24" t="s">
+        <v>461</v>
+      </c>
+      <c r="R24" t="s">
         <v>460</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>459</v>
-      </c>
-      <c r="S24" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -3376,10 +3352,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
@@ -3391,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>599</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -3402,7 +3378,7 @@
         <v>456</v>
       </c>
       <c r="D26" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
@@ -3440,7 +3416,7 @@
         <v>455</v>
       </c>
       <c r="D27" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
@@ -3455,7 +3431,7 @@
         <v>138</v>
       </c>
       <c r="K27" t="s">
-        <v>600</v>
+        <v>454</v>
       </c>
       <c r="M27" t="s">
         <v>453</v>
@@ -3481,7 +3457,7 @@
         <v>450</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -3522,10 +3498,10 @@
         <v>446</v>
       </c>
       <c r="D29" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E29" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F29" t="s">
         <v>115</v>
@@ -3566,10 +3542,10 @@
         <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E30" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F30" t="s">
         <v>115</v>
@@ -3607,10 +3583,10 @@
         <v>436</v>
       </c>
       <c r="D31" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E31" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F31" t="s">
         <v>115</v>
@@ -3651,10 +3627,10 @@
         <v>429</v>
       </c>
       <c r="D32" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E32" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F32" t="s">
         <v>115</v>
@@ -3704,9 +3680,6 @@
         <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>592</v>
-      </c>
-      <c r="L33" t="s">
         <v>424</v>
       </c>
       <c r="M33" t="s">
@@ -3736,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F34" t="s">
         <v>115</v>
@@ -3746,9 +3719,6 @@
       </c>
       <c r="I34" s="1">
         <v>30</v>
-      </c>
-      <c r="K34" t="s">
-        <v>592</v>
       </c>
       <c r="M34" t="s">
         <v>422</v>
@@ -3777,7 +3747,7 @@
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F35" t="s">
         <v>115</v>
@@ -3788,7 +3758,7 @@
       <c r="I35" s="1">
         <v>31</v>
       </c>
-      <c r="L35" t="s">
+      <c r="K35" t="s">
         <v>408</v>
       </c>
       <c r="M35" t="s">
@@ -3812,7 +3782,7 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F36" t="s">
         <v>115</v>
@@ -3823,7 +3793,7 @@
       <c r="I36" s="1">
         <v>32</v>
       </c>
-      <c r="L36" t="s">
+      <c r="K36" t="s">
         <v>408</v>
       </c>
       <c r="M36" t="s">
@@ -3847,7 +3817,7 @@
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F37" t="s">
         <v>115</v>
@@ -3858,7 +3828,7 @@
       <c r="I37" s="1">
         <v>33</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" t="s">
         <v>408</v>
       </c>
       <c r="M37" t="s">
@@ -3885,7 +3855,7 @@
         <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F38" t="s">
         <v>115</v>
@@ -3896,7 +3866,7 @@
       <c r="I38" s="1">
         <v>34</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" t="s">
         <v>408</v>
       </c>
       <c r="M38" t="s">
@@ -3923,7 +3893,7 @@
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F39" t="s">
         <v>115</v>
@@ -3934,7 +3904,7 @@
       <c r="I39" s="1">
         <v>35</v>
       </c>
-      <c r="L39" t="s">
+      <c r="K39" t="s">
         <v>408</v>
       </c>
       <c r="M39" t="s">
@@ -3961,7 +3931,7 @@
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F40" t="s">
         <v>115</v>
@@ -3972,7 +3942,7 @@
       <c r="H40" t="s">
         <v>31</v>
       </c>
-      <c r="L40" t="s">
+      <c r="K40" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3984,13 +3954,13 @@
         <v>403</v>
       </c>
       <c r="D41" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E41" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F41" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
@@ -3999,9 +3969,6 @@
         <v>36</v>
       </c>
       <c r="K41" t="s">
-        <v>601</v>
-      </c>
-      <c r="L41" t="s">
         <v>402</v>
       </c>
       <c r="M41" t="s">
@@ -4034,10 +4001,10 @@
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F42" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -4072,7 +4039,7 @@
         <v>390</v>
       </c>
       <c r="D43" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -4113,7 +4080,7 @@
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F44" t="s">
         <v>109</v>
@@ -4133,10 +4100,10 @@
         <v>384</v>
       </c>
       <c r="D45" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E45" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F45" t="s">
         <v>109</v>
@@ -4159,7 +4126,7 @@
         <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F46" t="s">
         <v>109</v>
@@ -4169,9 +4136,6 @@
       </c>
       <c r="I46" s="1">
         <v>38</v>
-      </c>
-      <c r="K46" t="s">
-        <v>602</v>
       </c>
       <c r="M46" t="s">
         <v>111</v>
@@ -4214,7 +4178,7 @@
       <c r="H47" t="s">
         <v>31</v>
       </c>
-      <c r="L47" t="s">
+      <c r="K47" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4226,7 +4190,7 @@
         <v>384</v>
       </c>
       <c r="D48" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E48" t="s">
         <v>102</v>
@@ -4240,7 +4204,7 @@
       <c r="H48" t="s">
         <v>31</v>
       </c>
-      <c r="L48" t="s">
+      <c r="K48" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4266,9 +4230,6 @@
       <c r="I49" s="1">
         <v>38</v>
       </c>
-      <c r="K49" t="s">
-        <v>602</v>
-      </c>
       <c r="M49" t="s">
         <v>383</v>
       </c>
@@ -4287,10 +4248,10 @@
         <v>379</v>
       </c>
       <c r="D50" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E50" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F50" t="s">
         <v>115</v>
@@ -4328,10 +4289,10 @@
         <v>379</v>
       </c>
       <c r="D51" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E51" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F51" t="s">
         <v>115</v>
@@ -4369,7 +4330,7 @@
         <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F52" t="s">
         <v>115</v>
@@ -4415,7 +4376,7 @@
       <c r="I53" s="1">
         <v>42</v>
       </c>
-      <c r="L53" t="s">
+      <c r="K53" t="s">
         <v>363</v>
       </c>
       <c r="M53" t="s">
@@ -4453,7 +4414,7 @@
       <c r="I54" s="1">
         <v>43</v>
       </c>
-      <c r="L54" t="s">
+      <c r="K54" t="s">
         <v>363</v>
       </c>
       <c r="M54" t="s">
@@ -4494,7 +4455,7 @@
       <c r="I55" s="1">
         <v>44</v>
       </c>
-      <c r="L55" t="s">
+      <c r="K55" t="s">
         <v>363</v>
       </c>
       <c r="M55" t="s">
@@ -4521,10 +4482,10 @@
         <v>359</v>
       </c>
       <c r="D56" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E56" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F56" t="s">
         <v>115</v>
@@ -4562,10 +4523,10 @@
         <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E57" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F57" t="s">
         <v>115</v>
@@ -4603,7 +4564,7 @@
         <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E58" t="s">
         <v>334</v>
@@ -4638,7 +4599,7 @@
         <v>348</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>334</v>
@@ -4653,7 +4614,7 @@
         <v>48</v>
       </c>
       <c r="K59" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="M59" t="s">
         <v>347</v>
@@ -4679,10 +4640,10 @@
         <v>344</v>
       </c>
       <c r="D60" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E60" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F60" t="s">
         <v>115</v>
@@ -4723,7 +4684,7 @@
         <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F61" t="s">
         <v>115</v>
@@ -4854,7 +4815,7 @@
         <v>328</v>
       </c>
       <c r="D65" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E65" t="s">
         <v>58</v>
@@ -4892,7 +4853,7 @@
         <v>324</v>
       </c>
       <c r="D66" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
@@ -4930,7 +4891,7 @@
         <v>320</v>
       </c>
       <c r="D67" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E67" t="s">
         <v>58</v>
@@ -4971,10 +4932,10 @@
         <v>315</v>
       </c>
       <c r="D68" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E68" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -5003,10 +4964,10 @@
         <v>310</v>
       </c>
       <c r="D69" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E69" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F69" t="s">
         <v>115</v>
@@ -5044,10 +5005,10 @@
         <v>310</v>
       </c>
       <c r="D70" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E70" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
@@ -5082,7 +5043,7 @@
         <v>303</v>
       </c>
       <c r="D71" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E71" t="s">
         <v>58</v>
@@ -5120,10 +5081,10 @@
         <v>303</v>
       </c>
       <c r="D72" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E72" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F72" t="s">
         <v>115</v>
@@ -5155,10 +5116,10 @@
         <v>300</v>
       </c>
       <c r="D73" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E73" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -5193,7 +5154,7 @@
         <v>291</v>
       </c>
       <c r="D74" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E74" t="s">
         <v>296</v>
@@ -5234,7 +5195,7 @@
         <v>291</v>
       </c>
       <c r="D75" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E75" t="s">
         <v>292</v>
@@ -5275,10 +5236,10 @@
         <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E76" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F76" t="s">
         <v>115</v>
@@ -5316,10 +5277,10 @@
         <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E77" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F77" t="s">
         <v>115</v>
@@ -5360,7 +5321,7 @@
         <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F78" t="s">
         <v>115</v>
@@ -5398,7 +5359,7 @@
         <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -5430,7 +5391,7 @@
         <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F80" t="s">
         <v>115</v>
@@ -5462,7 +5423,7 @@
         <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F81" t="s">
         <v>115</v>
@@ -5494,7 +5455,7 @@
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F82" t="s">
         <v>115</v>
@@ -5526,7 +5487,7 @@
         <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F83" t="s">
         <v>115</v>
@@ -5558,7 +5519,7 @@
         <v>33</v>
       </c>
       <c r="E84" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F84" t="s">
         <v>115</v>
@@ -5590,7 +5551,7 @@
         <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F85" t="s">
         <v>115</v>
@@ -5628,7 +5589,7 @@
         <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F86" t="s">
         <v>115</v>
@@ -5660,7 +5621,7 @@
         <v>33</v>
       </c>
       <c r="E87" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F87" t="s">
         <v>115</v>
@@ -5692,7 +5653,7 @@
         <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F88" t="s">
         <v>115</v>
@@ -5724,7 +5685,7 @@
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F89" t="s">
         <v>115</v>
@@ -5756,7 +5717,7 @@
         <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F90" t="s">
         <v>115</v>
@@ -5788,7 +5749,7 @@
         <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F91" t="s">
         <v>115</v>
@@ -5820,7 +5781,7 @@
         <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F92" t="s">
         <v>115</v>
@@ -5852,7 +5813,7 @@
         <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F93" t="s">
         <v>115</v>
@@ -5881,10 +5842,10 @@
         <v>248</v>
       </c>
       <c r="D94" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E94" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F94" t="s">
         <v>115</v>
@@ -5922,10 +5883,10 @@
         <v>243</v>
       </c>
       <c r="D95" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E95" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
@@ -5960,7 +5921,7 @@
         <v>239</v>
       </c>
       <c r="D96" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E96" t="s">
         <v>58</v>
@@ -5998,10 +5959,10 @@
         <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E97" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F97" t="s">
         <v>115</v>
@@ -6039,10 +6000,10 @@
         <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E98" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F98" t="s">
         <v>115</v>
@@ -6077,7 +6038,7 @@
         <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E99" t="s">
         <v>58</v>
@@ -6118,7 +6079,7 @@
         <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E100" t="s">
         <v>58</v>
@@ -6150,7 +6111,7 @@
         <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E101" t="s">
         <v>58</v>
@@ -6188,7 +6149,7 @@
         <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E102" t="s">
         <v>58</v>
@@ -6226,7 +6187,7 @@
         <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E103" t="s">
         <v>58</v>
@@ -6267,7 +6228,7 @@
         <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E104" t="s">
         <v>58</v>
@@ -6305,7 +6266,7 @@
         <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E105" t="s">
         <v>58</v>
@@ -6375,7 +6336,7 @@
         <v>198</v>
       </c>
       <c r="D107" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E107" t="s">
         <v>58</v>
@@ -6413,7 +6374,7 @@
         <v>192</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>334</v>
@@ -6429,7 +6390,7 @@
       </c>
       <c r="J108" s="3"/>
       <c r="K108" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="M108" t="s">
         <v>194</v>
@@ -6455,10 +6416,10 @@
         <v>192</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>115</v>
@@ -6471,7 +6432,7 @@
       </c>
       <c r="J109" s="3"/>
       <c r="K109" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="M109" t="s">
         <v>191</v>
@@ -6587,9 +6548,6 @@
       <c r="I112" s="1">
         <v>103</v>
       </c>
-      <c r="K112" t="s">
-        <v>602</v>
-      </c>
       <c r="M112" t="s">
         <v>189</v>
       </c>
@@ -6649,7 +6607,7 @@
         <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E114" t="s">
         <v>58</v>
@@ -6708,7 +6666,7 @@
         <v>31</v>
       </c>
       <c r="K115" t="s">
-        <v>597</v>
+        <v>169</v>
       </c>
       <c r="M115" t="s">
         <v>157</v>
@@ -6734,7 +6692,7 @@
         <v>168</v>
       </c>
       <c r="D116" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E116" t="s">
         <v>58</v>
@@ -6748,7 +6706,7 @@
       <c r="I116" s="1">
         <v>109</v>
       </c>
-      <c r="L116" t="s">
+      <c r="K116" t="s">
         <v>167</v>
       </c>
       <c r="M116" t="s">
@@ -6775,7 +6733,7 @@
         <v>164</v>
       </c>
       <c r="D117" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E117" t="s">
         <v>58</v>
@@ -6792,8 +6750,8 @@
       <c r="J117" t="s">
         <v>31</v>
       </c>
-      <c r="L117" t="s">
-        <v>573</v>
+      <c r="K117" t="s">
+        <v>575</v>
       </c>
       <c r="M117" t="s">
         <v>163</v>
@@ -6822,7 +6780,7 @@
         <v>159</v>
       </c>
       <c r="D118" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E118" t="s">
         <v>58</v>
@@ -6863,7 +6821,7 @@
         <v>158</v>
       </c>
       <c r="D119" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E119" t="s">
         <v>58</v>
@@ -6904,7 +6862,7 @@
         <v>152</v>
       </c>
       <c r="D120" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E120" t="s">
         <v>58</v>
@@ -6915,8 +6873,8 @@
       <c r="G120" t="s">
         <v>5</v>
       </c>
-      <c r="L120" t="s">
-        <v>572</v>
+      <c r="K120" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
@@ -6939,7 +6897,7 @@
         <v>5</v>
       </c>
       <c r="K121" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
@@ -6953,7 +6911,7 @@
         <v>33</v>
       </c>
       <c r="E122" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F122" t="s">
         <v>115</v>
@@ -6965,10 +6923,7 @@
         <v>113</v>
       </c>
       <c r="K122" t="s">
-        <v>593</v>
-      </c>
-      <c r="L122" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M122" t="s">
         <v>147</v>
@@ -7003,10 +6958,10 @@
         <v>114</v>
       </c>
       <c r="K123" t="s">
-        <v>592</v>
+        <v>145</v>
       </c>
       <c r="L123" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M123" t="s">
         <v>142</v>
@@ -7032,7 +6987,7 @@
         <v>33</v>
       </c>
       <c r="E124" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F124" t="s">
         <v>115</v>
@@ -7043,8 +6998,8 @@
       <c r="I124" s="1">
         <v>115</v>
       </c>
-      <c r="K124" t="s">
-        <v>592</v>
+      <c r="L124" t="s">
+        <v>143</v>
       </c>
       <c r="M124" t="s">
         <v>142</v>
@@ -7067,7 +7022,7 @@
         <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E125" t="s">
         <v>58</v>
@@ -7105,10 +7060,10 @@
         <v>138</v>
       </c>
       <c r="D126" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E126" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F126" t="s">
         <v>115</v>
@@ -7140,7 +7095,7 @@
         <v>135</v>
       </c>
       <c r="D127" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E127" t="s">
         <v>58</v>
@@ -7178,7 +7133,7 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E128" t="s">
         <v>58</v>
@@ -7216,10 +7171,10 @@
         <v>125</v>
       </c>
       <c r="D129" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E129" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F129" t="s">
         <v>115</v>
@@ -7257,10 +7212,10 @@
         <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E130" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F130" t="s">
         <v>115</v>
@@ -7298,7 +7253,7 @@
         <v>116</v>
       </c>
       <c r="D131" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E131" t="s">
         <v>58</v>
@@ -7339,10 +7294,10 @@
         <v>116</v>
       </c>
       <c r="D132" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E132" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F132" t="s">
         <v>115</v>
@@ -7377,7 +7332,7 @@
         <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F133" t="s">
         <v>109</v>
@@ -7415,10 +7370,10 @@
         <v>103</v>
       </c>
       <c r="D134" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E134" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F134" t="s">
         <v>109</v>
@@ -7459,16 +7414,13 @@
         <v>33</v>
       </c>
       <c r="E135" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F135" t="s">
         <v>109</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
-      </c>
-      <c r="K135" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.35">
@@ -7520,7 +7472,7 @@
         <v>103</v>
       </c>
       <c r="D137" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E137" t="s">
         <v>102</v>
@@ -7563,9 +7515,6 @@
       <c r="G138" t="s">
         <v>32</v>
       </c>
-      <c r="K138" t="s">
-        <v>602</v>
-      </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
@@ -7575,7 +7524,7 @@
         <v>101</v>
       </c>
       <c r="D139" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E139" t="s">
         <v>58</v>
@@ -7616,7 +7565,7 @@
         <v>33</v>
       </c>
       <c r="E140" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F140" t="s">
         <v>90</v>
@@ -7654,10 +7603,10 @@
         <v>97</v>
       </c>
       <c r="D141" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E141" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F141" t="s">
         <v>90</v>
@@ -7695,16 +7644,13 @@
         <v>33</v>
       </c>
       <c r="E142" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F142" t="s">
         <v>90</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
-      </c>
-      <c r="K142" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.35">
@@ -7715,10 +7661,10 @@
         <v>96</v>
       </c>
       <c r="D143" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E143" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F143" t="s">
         <v>90</v>
@@ -7759,7 +7705,7 @@
         <v>33</v>
       </c>
       <c r="E144" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F144" t="s">
         <v>90</v>
@@ -7797,7 +7743,7 @@
         <v>33</v>
       </c>
       <c r="E145" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F145" t="s">
         <v>90</v>
@@ -7808,7 +7754,7 @@
       <c r="H145" t="s">
         <v>31</v>
       </c>
-      <c r="L145" t="s">
+      <c r="K145" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7820,10 +7766,10 @@
         <v>83</v>
       </c>
       <c r="D146" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E146" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F146" t="s">
         <v>115</v>
@@ -7861,7 +7807,7 @@
         <v>74</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>334</v>
@@ -7877,7 +7823,7 @@
       </c>
       <c r="J147" s="3"/>
       <c r="K147" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="M147" t="s">
         <v>77</v>
@@ -7903,10 +7849,10 @@
         <v>74</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>115</v>
@@ -7919,7 +7865,7 @@
       </c>
       <c r="J148" s="3"/>
       <c r="K148" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="M148" t="s">
         <v>72</v>
@@ -7942,7 +7888,7 @@
         <v>69</v>
       </c>
       <c r="D149" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E149" t="s">
         <v>58</v>
@@ -7983,7 +7929,7 @@
         <v>64</v>
       </c>
       <c r="D150" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E150" t="s">
         <v>58</v>
@@ -8024,7 +7970,7 @@
         <v>59</v>
       </c>
       <c r="D151" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E151" t="s">
         <v>58</v>
@@ -8062,7 +8008,7 @@
         <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E152" t="s">
         <v>58</v>
@@ -8097,10 +8043,10 @@
         <v>50</v>
       </c>
       <c r="D153" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E153" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F153" t="s">
         <v>115</v>
@@ -8132,10 +8078,10 @@
         <v>47</v>
       </c>
       <c r="D154" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E154" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F154" t="s">
         <v>115</v>
@@ -8173,7 +8119,7 @@
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E155" t="s">
         <v>41</v>
@@ -8225,7 +8171,7 @@
       <c r="I156" s="1">
         <v>146</v>
       </c>
-      <c r="L156" t="s">
+      <c r="K156" t="s">
         <v>28</v>
       </c>
       <c r="M156" t="s">
@@ -8252,7 +8198,7 @@
         <v>30</v>
       </c>
       <c r="D157" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E157" t="s">
         <v>35</v>
@@ -8312,9 +8258,6 @@
       <c r="H159" t="s">
         <v>31</v>
       </c>
-      <c r="K159" t="s">
-        <v>602</v>
-      </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
@@ -8324,7 +8267,7 @@
         <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E160" t="s">
         <v>29</v>
@@ -8338,7 +8281,7 @@
       <c r="I160" s="1">
         <v>147</v>
       </c>
-      <c r="L160" t="s">
+      <c r="K160" t="s">
         <v>28</v>
       </c>
       <c r="M160" t="s">
@@ -8365,7 +8308,7 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
@@ -8403,10 +8346,10 @@
         <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E162" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F162" t="s">
         <v>115</v>
@@ -8444,10 +8387,10 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E163" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F163" t="s">
         <v>115</v>
@@ -8481,14 +8424,14 @@
       <c r="A164" s="2">
         <v>166</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" t="s">
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E164" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F164" t="s">
         <v>115</v>
@@ -8519,54 +8462,57 @@
       <c r="A165" s="2">
         <v>167</v>
       </c>
-      <c r="C165" s="13" t="s">
-        <v>574</v>
+      <c r="C165" s="7" t="s">
+        <v>576</v>
       </c>
       <c r="D165" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E165" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F165" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
+      </c>
+      <c r="K165" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>168</v>
       </c>
-      <c r="C166" s="13" t="s">
-        <v>587</v>
+      <c r="C166" s="7" t="s">
+        <v>592</v>
       </c>
       <c r="D166" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E166" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F166" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
       </c>
       <c r="K166" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>169</v>
       </c>
-      <c r="C167" s="13" t="s">
-        <v>588</v>
+      <c r="C167" s="7" t="s">
+        <v>593</v>
       </c>
       <c r="D167" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E167" t="s">
         <v>334</v>
@@ -8578,7 +8524,7 @@
         <v>5</v>
       </c>
       <c r="K167" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -8615,63 +8561,63 @@
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>568</v>
-      </c>
       <c r="I1" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -8689,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M2" t="s">
         <v>434</v>
@@ -8701,15 +8647,15 @@
         <v>76</v>
       </c>
       <c r="Q2" t="s">
+        <v>548</v>
+      </c>
+      <c r="R2" t="s">
         <v>547</v>
-      </c>
-      <c r="R2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8727,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M3" t="s">
         <v>434</v>
@@ -8739,15 +8685,15 @@
         <v>76</v>
       </c>
       <c r="Q3" t="s">
+        <v>548</v>
+      </c>
+      <c r="R3" t="s">
         <v>547</v>
-      </c>
-      <c r="R3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -8768,19 +8714,19 @@
         <v>73</v>
       </c>
       <c r="L4" t="s">
+        <v>545</v>
+      </c>
+      <c r="M4" t="s">
         <v>544</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>543</v>
-      </c>
-      <c r="N4" t="s">
-        <v>542</v>
       </c>
       <c r="O4" t="s">
         <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="R4" t="s">
         <v>190</v>
@@ -8788,7 +8734,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -8809,24 +8755,24 @@
         <v>73</v>
       </c>
       <c r="L5" t="s">
+        <v>540</v>
+      </c>
+      <c r="M5" t="s">
         <v>539</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>538</v>
-      </c>
-      <c r="N5" t="s">
-        <v>537</v>
       </c>
       <c r="O5" t="s">
         <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>33</v>
@@ -8844,13 +8790,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
+        <v>535</v>
+      </c>
+      <c r="L6" t="s">
         <v>534</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>533</v>
-      </c>
-      <c r="M6" t="s">
-        <v>532</v>
       </c>
       <c r="N6" t="s">
         <v>189</v>
@@ -8859,15 +8805,15 @@
         <v>71</v>
       </c>
       <c r="P6" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q6" t="s">
         <v>531</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -8885,7 +8831,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M7" t="s">
         <v>434</v>
@@ -8897,15 +8843,15 @@
         <v>71</v>
       </c>
       <c r="P7" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -8923,7 +8869,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M8" t="s">
         <v>434</v>
@@ -8935,18 +8881,18 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q8" t="s">
+        <v>525</v>
+      </c>
+      <c r="R8" t="s">
         <v>524</v>
-      </c>
-      <c r="R8" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -8964,7 +8910,7 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M9" t="s">
         <v>434</v>
@@ -8976,15 +8922,15 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q9" t="s">
         <v>520</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -9002,24 +8948,24 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
+        <v>518</v>
+      </c>
+      <c r="M10" t="s">
         <v>517</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>516</v>
-      </c>
-      <c r="N10" t="s">
-        <v>515</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
       </c>
       <c r="Q10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -9057,7 +9003,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -9075,24 +9021,24 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
+        <v>513</v>
+      </c>
+      <c r="M12" t="s">
         <v>512</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>511</v>
-      </c>
-      <c r="N12" t="s">
-        <v>510</v>
       </c>
       <c r="O12" t="s">
         <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -9110,27 +9056,27 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
+        <v>508</v>
+      </c>
+      <c r="M13" t="s">
         <v>507</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>506</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>494</v>
+      </c>
+      <c r="P13" t="s">
         <v>505</v>
       </c>
-      <c r="O13" t="s">
-        <v>493</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>504</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -9148,7 +9094,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M14" t="s">
         <v>434</v>
@@ -9160,15 +9106,15 @@
         <v>16</v>
       </c>
       <c r="P14" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q14" t="s">
         <v>500</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -9186,7 +9132,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M15" t="s">
         <v>434</v>
@@ -9198,12 +9144,12 @@
         <v>16</v>
       </c>
       <c r="Q15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -9221,7 +9167,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M16" t="s">
         <v>434</v>
@@ -9230,15 +9176,15 @@
         <v>433</v>
       </c>
       <c r="O16" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q16" t="s">
         <v>493</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -9256,30 +9202,30 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
+        <v>491</v>
+      </c>
+      <c r="M17" t="s">
         <v>490</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>489</v>
-      </c>
-      <c r="N17" t="s">
-        <v>488</v>
       </c>
       <c r="O17" t="s">
         <v>16</v>
       </c>
       <c r="P17" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q17" t="s">
         <v>487</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>486</v>
-      </c>
-      <c r="R17" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -9297,7 +9243,7 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M18" t="s">
         <v>434</v>
@@ -9309,12 +9255,12 @@
         <v>16</v>
       </c>
       <c r="R18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -9332,27 +9278,27 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
+        <v>482</v>
+      </c>
+      <c r="M19" t="s">
         <v>481</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>480</v>
-      </c>
-      <c r="N19" t="s">
-        <v>479</v>
       </c>
       <c r="O19" t="s">
         <v>2</v>
       </c>
       <c r="Q19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="R19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -9370,7 +9316,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M20" t="s">
         <v>434</v>
@@ -9382,18 +9328,18 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q20" t="s">
         <v>475</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>474</v>
-      </c>
-      <c r="R20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -9411,7 +9357,7 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M21" t="s">
         <v>434</v>
@@ -9423,12 +9369,12 @@
         <v>113</v>
       </c>
       <c r="Q21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -9446,7 +9392,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M22" t="s">
         <v>434</v>
@@ -9458,15 +9404,15 @@
         <v>113</v>
       </c>
       <c r="Q22" t="s">
+        <v>469</v>
+      </c>
+      <c r="R22" t="s">
         <v>468</v>
-      </c>
-      <c r="R22" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -9484,7 +9430,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M23" t="s">
         <v>434</v>
@@ -9499,10 +9445,10 @@
         <v>452</v>
       </c>
       <c r="Q23" t="s">
+        <v>465</v>
+      </c>
+      <c r="R23" t="s">
         <v>464</v>
-      </c>
-      <c r="R23" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -13552,7 +13498,7 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -13567,7 +13513,7 @@
         <v>134</v>
       </c>
       <c r="L145" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M145" t="s">
         <v>3</v>
@@ -13576,18 +13522,18 @@
         <v>71</v>
       </c>
       <c r="P145" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q145" t="s">
         <v>460</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="R145" t="s">
         <v>459</v>
-      </c>
-      <c r="R145" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>12</v>
@@ -13599,7 +13545,7 @@
         <v>5</v>
       </c>
       <c r="J146" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.35">
@@ -14402,18 +14348,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14436,6 +14382,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90FEBE6-2D23-4200-A95D-5B5E053BC493}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10569E90-F9DE-42DC-996C-A303A7E3E546}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -14450,12 +14404,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90FEBE6-2D23-4200-A95D-5B5E053BC493}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>